--- a/output/correlation_matrix.xlsx
+++ b/output/correlation_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noa/Documents/Documents - MacBook Air/PhD/R:Stats:GIS/RStudio/R_Workspace/Pheromone_trap_code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4442BDC2-6CD7-A645-ABCF-DFE39525F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4569F-A28B-664F-A587-218102B78D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21880" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="660" windowWidth="18260" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - correlation_matrix" sheetId="1" r:id="rId1"/>
@@ -216,34 +216,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1393,130 +1393,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>-0.52500000000000002</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>-0.156</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>-3.9E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>-0.52500000000000002</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>0.05</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>-0.156</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>0.05</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>-0.248</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>-3.9E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>-0.248</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>1</v>
       </c>
     </row>
